--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-F2rl1.xlsx
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2416746666666667</v>
+        <v>0.295943</v>
       </c>
       <c r="N2">
-        <v>0.725024</v>
+        <v>0.887829</v>
       </c>
       <c r="O2">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="P2">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="Q2">
-        <v>0.004293108778666666</v>
+        <v>0.005257131452</v>
       </c>
       <c r="R2">
-        <v>0.038637979008</v>
+        <v>0.047314183068</v>
       </c>
       <c r="S2">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
       <c r="T2">
-        <v>0.04568496189055127</v>
+        <v>0.0553754985456454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>15.145056</v>
       </c>
       <c r="O3">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543545</v>
       </c>
       <c r="P3">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543546</v>
       </c>
       <c r="Q3">
         <v>0.089678924928</v>
@@ -632,10 +632,10 @@
         <v>0.807110324352</v>
       </c>
       <c r="S3">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543545</v>
       </c>
       <c r="T3">
-        <v>0.9543150381094487</v>
+        <v>0.9446245014543546</v>
       </c>
     </row>
   </sheetData>
